--- a/docs/PTA2_DDC_80/PTA2_DDC_80_16.08.2024_output.xlsx
+++ b/docs/PTA2_DDC_80/PTA2_DDC_80_16.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731778864.9518156</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731778865.4694052</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731778864.9518156.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731778865.4694052.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>277.51</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>277.29</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.2199999999999704</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731778868.5990093</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731778869.8750474</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731778868.5990093.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731778869.8750474.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>277.89</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.89</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -643,95 +671,107 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731778873.103894</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731778873.103894.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731778873.103894.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>278.44</v>
       </c>
-      <c r="J5" t="n">
-        <v>278.44</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>278.27</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1700000000000159</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731778876.462502</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731778876.9282856</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778876.462502.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778876.9282856.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>277.51</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>277.29</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.2199999999999704</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731778879.3378367</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731778880.4169486</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778879.3378367.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778880.4169486.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>277.89</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>277.89</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731778883.106725</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731778884.687555</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778883.106725.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778884.687555.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>278.44</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>277.93</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.5099999999999909</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731778886.3178453</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731778886.804352</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778886.3178453.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778886.804352.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>278</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>277.84</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.160000000000025</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731778887.2045455</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731778887.7425628</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778887.2045455.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778887.7425628.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>278.3</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>277.93</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.3700000000000045</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731778890.195645</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731778891.482988</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778890.195645.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778891.482988.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>278.57</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>278.37</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731778893.3186946</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731778894.8101978</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778893.3186946.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778894.8101978.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>278.06</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>278.24</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.1800000000000068</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1051,95 +1127,107 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731778895.0631614</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731778895.0631614.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731778895.0631614.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>278.43</v>
       </c>
-      <c r="J13" t="n">
-        <v>278.43</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>278.65</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.2199999999999704</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731778898.2111397</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731778899.118426</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731778898.2111397.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731778899.118426.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>127.29</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>127.53</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.2399999999999949</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1147,51 +1235,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731778900.8829029</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731778902.3755825</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731778900.8829029.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731778902.3755825.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>127.09</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>127.24</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.1499999999999915</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -1199,51 +1293,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731778903.4777331</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731778903.7235172</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731778903.4777331.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731778903.7235172.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>127.68</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>127.12</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -1251,95 +1351,107 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731778907.4263089</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731778907.4263089.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731778907.4263089.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>127.4</v>
       </c>
-      <c r="J17" t="n">
-        <v>127.4</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>127.95</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.5499999999999972</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731778910.654942</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731778911.571511</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778910.654942.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778911.571511.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6317</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6329.5</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>12.5</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1347,51 +1459,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731778913.3060086</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731778914.058205</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778913.3060086.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778914.058205.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6308</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6317</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>9</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1399,51 +1517,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731778914.4353793</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731778915.084838</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778914.4353793.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778915.084838.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6301</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6313.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>12.5</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1451,51 +1575,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731778918.2165298</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731778918.7010539</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778918.2165298.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778918.7010539.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6300</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6304</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>4</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1503,95 +1633,107 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731778919.884408</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731778919.884408.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731778919.884408.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6318.5</v>
       </c>
-      <c r="J22" t="n">
-        <v>6318.5</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>6326</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731778925.1605787</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731778925.2003295</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778925.1605787.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778925.2003295.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>493.6</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>494.55</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.9499999999999886</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1599,51 +1741,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731778926.8395088</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731778927.2062585</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778926.8395088.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778927.2062585.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>493</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>494.3</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>1.300000000000011</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1651,51 +1799,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731778928.537465</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731778929.004482</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778928.537465.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778929.004482.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>494.6</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>493.8</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.8000000000000114</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1703,51 +1857,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731778929.4065695</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731778931.238527</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778929.4065695.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778931.238527.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>493.1</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>493.35</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.25</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1755,95 +1915,107 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731778932.3236742</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731778932.3236742.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731778932.3236742.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>493.85</v>
       </c>
-      <c r="J27" t="n">
-        <v>493.85</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>494.5</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.6499999999999773</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731778936.0024233</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731778939.6586483</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778936.0024233.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778939.6586483.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>223.86</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>223.66</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.2000000000000171</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1851,51 +2023,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731778939.7696528</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731778940.9016056</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778939.7696528.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778940.9016056.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>223.35</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>223.55</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.2000000000000171</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1903,51 +2081,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731778941.3032472</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731778943.5853772</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778941.3032472.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778943.5853772.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>223.9</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>223.57</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.3300000000000125</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1955,43 +2139,49 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731778945.8859053</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731778945.8859053.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731778945.8859053.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>223.8</v>
       </c>
-      <c r="J31" t="n">
-        <v>223.8</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
+        <v>223.79</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.01000000000001933</v>
+      </c>
+      <c r="N31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1999,51 +2189,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731778949.8384151</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731778953.039199</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778949.8384151.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778953.039199.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1026.4</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1019</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-7.400000000000091</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.72</v>
       </c>
     </row>
@@ -2051,51 +2247,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731778954.8738017</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731778956.8297505</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778954.8738017.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778956.8297505.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1015</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1015.8</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2103,95 +2305,107 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731778957.4728434</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731778957.4728434.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731778957.4728434.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1017</v>
       </c>
-      <c r="J34" t="n">
-        <v>1017</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1021</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731778960.350834</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731778961.3721135</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778960.350834.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778961.3721135.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>12.124</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>12.119</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.005000000000000782</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2199,51 +2413,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731778961.422043</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731778963.7324252</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778961.422043.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778963.7324252.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>12.106</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>12.124</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.01800000000000068</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -2251,51 +2471,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731778964.367742</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731778965.316813</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778964.367742.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778965.316813.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>12.128</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>12.113</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.01500000000000057</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2303,51 +2529,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731778966.415539</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731778970.5157225</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778966.415539.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778970.5157225.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>12.092</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>12.085</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.006999999999999673</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -2355,51 +2587,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731778970.7503483</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731778971.0035758</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778970.7503483.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778971.0035758.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>12.099</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>12.086</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.0129999999999999</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2407,51 +2645,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731778971.8214538</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731778972.7478278</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731778971.8214538.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731778972.7478278.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>125.06</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>125.14</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2459,51 +2703,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731778975.6972415</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731778976.2339416</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731778975.6972415.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731778976.2339416.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>124.6</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>124.8</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2511,51 +2761,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731778978.465782</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731778980.8580606</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731778978.465782.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731778980.8580606.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>125.02</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>125.22</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.2000000000000028</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -2563,95 +2819,107 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731778981.583817</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731778981.583817.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731778981.583817.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>126.02</v>
       </c>
-      <c r="J43" t="n">
-        <v>126.02</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>127.1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-1.079999999999998</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.86</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731778983.3545132</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731778984.514107</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731778983.3545132.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731778984.514107.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>161.3</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>161.76</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.4599999999999795</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -2659,51 +2927,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731778987.551298</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731778990.5294812</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731778987.551298.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731778990.5294812.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>162</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>162.14</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.1399999999999864</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -2711,95 +2985,107 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731778992.6721706</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731778992.6721706.png</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731778992.6721706.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>162.6</v>
       </c>
-      <c r="J46" t="n">
-        <v>162.6</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>162.94</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.3400000000000034</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731778995.617898</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731778997.288022</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731778995.617898.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731778997.288022.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>49.715</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>49.755</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2807,51 +3093,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731778998.001679</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731778998.3178322</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731778998.001679.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731778998.3178322.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>49.785</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>49.705</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2859,51 +3151,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731778999.9984612</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731779000.1856635</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731778999.9984612.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779000.1856635.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>49.66</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>49.725</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.06500000000000483</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2911,51 +3209,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731779001.2953677</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731779001.9404564</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779001.2953677.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779001.9404564.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>49.77</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>49.715</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.05499999999999972</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2963,51 +3267,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731779002.7675717</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731779004.9351282</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779002.7675717.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779004.9351282.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>49.675</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>49.7</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.02500000000000568</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3015,95 +3325,107 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731779005.1722531</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731779005.1722531.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731779005.1722531.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>49.765</v>
       </c>
-      <c r="J52" t="n">
-        <v>49.765</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>49.775</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.00999999999999801</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731779008.1463256</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731779009.238192</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731779008.1463256.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731779009.238192.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>1381.4</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>1383.2</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>1.799999999999955</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3111,51 +3433,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731779010.725355</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731779012.2811847</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731779010.725355.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731779012.2811847.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>1376.2</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>1377.2</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -3163,51 +3491,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731779013.3394008</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731779014.2202945</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731779013.3394008.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731779014.2202945.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>1379.4</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>1376.2</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>3.200000000000045</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -3215,95 +3549,107 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731779016.1092284</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731779016.1092284.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731779016.1092284.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>1380.6</v>
       </c>
-      <c r="J56" t="n">
-        <v>1380.6</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1387.8</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-7.200000000000045</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731779020.8214884</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731779021.4913292</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731779020.8214884.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731779021.4913292.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>58.91</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>58.81</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -3311,51 +3657,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731779022.9427843</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731779024.2638156</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731779022.9427843.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731779024.2638156.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>58.74</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>58.82</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -3363,51 +3715,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731779025.3447819</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731779025.82278</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731779025.3447819.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731779025.82278.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>58.85</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>58.8</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.05000000000000426</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -3415,51 +3773,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731779026.2966208</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731779029.4302905</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731779026.2966208.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731779029.4302905.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>58.68</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>58.68</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3467,51 +3831,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731779035.2105176</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731779036.9019434</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779035.2105176.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779036.9019434.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>98.56999999999999</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>98.64</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.07000000000000739</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -3519,51 +3889,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731779037.9123197</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731779040.0743828</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779037.9123197.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779040.0743828.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>98.88</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>98.77</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.1099999999999994</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -3571,95 +3947,107 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731779041.4524474</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731779041.4524474.png</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731779041.4524474.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>99.04000000000001</v>
       </c>
-      <c r="J63" t="n">
-        <v>99.04000000000001</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>99.36</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.3199999999999932</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731779043.9019039</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731779052.5765817</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SELG1731779043.9019039.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SELG1731779052.5765817.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>54.7</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>54.5</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.2000000000000028</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -3667,95 +4055,107 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731779052.7280295</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731779052.7280295.png</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731779052.7280295.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>54.68</v>
       </c>
-      <c r="J65" t="n">
-        <v>54.68</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>55.08</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.3999999999999986</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.73</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731779056.947975</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731779058.6299691</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731779056.947975.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731779058.6299691.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>152.8</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>152.66</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.1400000000000148</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -3763,51 +4163,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731779059.9350994</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731779062.3835766</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731779059.9350994.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731779062.3835766.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>152.46</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>152.78</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.3199999999999932</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -3815,139 +4221,157 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731779064.0962894</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731779064.0962894.png</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731779064.0962894.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>153.12</v>
       </c>
-      <c r="J68" t="n">
-        <v>153.12</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>153.28</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-0.1599999999999966</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731779064.6254268</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731779064.6254268.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731779064.6254268.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>0.3025</v>
       </c>
-      <c r="J69" t="n">
-        <v>0.3025</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>0.3056</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.003099999999999992</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1.02</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731779070.1984434</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731779072.112732</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779070.1984434.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779072.112732.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>19.759</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>19.799</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -3955,51 +4379,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731779074.0283928</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731779074.4152932</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779074.0283928.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779074.4152932.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>19.728</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>19.752</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.02399999999999736</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -4007,95 +4437,107 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731779078.51182</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731779078.51182.png</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731779078.51182.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>19.885</v>
       </c>
-      <c r="J72" t="n">
-        <v>19.885</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>19.97</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-0.0849999999999973</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731779084.7947297</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731779086.573325</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731779084.7947297.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731779086.573325.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>675.45</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>675.7</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.25</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -4103,51 +4545,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731779087.0039923</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731779087.3070908</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731779087.0039923.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731779087.3070908.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>677.35</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>675.6</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>1.75</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -4155,51 +4603,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731779088.9757366</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731779090.3015742</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731779088.9757366.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731779090.3015742.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>674.1</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>674.95</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.8500000000000227</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -4207,95 +4661,107 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731779090.8786526</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731779090.8786526.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731779090.8786526.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>676.2</v>
       </c>
-      <c r="J76" t="n">
-        <v>676.2</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>674.9</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1.300000000000068</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731779093.7494512</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731779094.31817</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731779093.7494512.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731779094.31817.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>149.45</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>149.11</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.339999999999975</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -4303,51 +4769,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731779095.5615406</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731779098.3650646</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731779095.5615406.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731779098.3650646.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>148.75</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>148.88</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.1299999999999955</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -4355,51 +4827,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731779098.9952428</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731779101.4837952</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731779098.9952428.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731779101.4837952.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>148.54</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>148.59</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.05000000000001137</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -4407,44 +4885,50 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731779102.4743137</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731779102.4743137.png</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731779102.4743137.png</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>148.58</v>
       </c>
-      <c r="J80" t="n">
-        <v>148.58</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>149.02</v>
+      </c>
+      <c r="M80" t="n">
+        <v>-0.4399999999999977</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-0.3</v>
       </c>
     </row>
   </sheetData>
@@ -4505,19 +4989,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.639999999999986</v>
+        <v>1.420000000000016</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2049999999999983</v>
+        <v>0.177500000000002</v>
       </c>
       <c r="E2" t="n">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -4527,19 +5011,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2650000000000077</v>
+        <v>0.2550000000000097</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04416666666666794</v>
+        <v>0.04250000000000161</v>
       </c>
       <c r="E3" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -4571,19 +5055,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38</v>
+        <v>30.5</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>7.6</v>
+        <v>6.1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="F5" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -4593,19 +5077,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.300000000000011</v>
+        <v>2.650000000000034</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6600000000000023</v>
+        <v>0.5300000000000068</v>
       </c>
       <c r="E6" t="n">
-        <v>0.66</v>
+        <v>0.53</v>
       </c>
       <c r="F6" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="7">
@@ -4615,19 +5099,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5199999999999818</v>
+        <v>0.07999999999998408</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1299999999999955</v>
+        <v>0.01999999999999602</v>
       </c>
       <c r="E7" t="n">
-        <v>0.35</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8">
@@ -4637,19 +5121,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>-1.200000000000045</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>1.5</v>
+        <v>-0.3000000000000114</v>
       </c>
       <c r="E8" t="n">
-        <v>0.43</v>
+        <v>-0.09000000000000002</v>
       </c>
       <c r="F8" t="n">
-        <v>0.11</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="9">
@@ -4659,19 +5143,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9499999999999886</v>
+        <v>0.3999999999999915</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2374999999999972</v>
+        <v>0.09999999999999787</v>
       </c>
       <c r="E9" t="n">
-        <v>0.75</v>
+        <v>0.32</v>
       </c>
       <c r="F9" t="n">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="10">
@@ -4681,19 +5165,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07999999999999829</v>
+        <v>-1</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01999999999999957</v>
+        <v>-0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06</v>
+        <v>-0.8</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="11">
@@ -4703,13 +5187,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7300000000000466</v>
+        <v>0.7400000000000659</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1825000000000117</v>
+        <v>0.1850000000000165</v>
       </c>
       <c r="E11" t="n">
         <v>0.33</v>
@@ -4747,19 +5231,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.850000000000023</v>
+        <v>4.150000000000091</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7125000000000057</v>
+        <v>1.037500000000023</v>
       </c>
       <c r="E13" t="n">
-        <v>0.43</v>
+        <v>0.62</v>
       </c>
       <c r="F13" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="14">
@@ -4769,19 +5253,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2199999999999704</v>
+        <v>0.3899999999999864</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07333333333332348</v>
+        <v>0.1299999999999955</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="15">
@@ -4791,19 +5275,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1800000000000068</v>
+        <v>-0.1399999999999864</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06000000000000227</v>
+        <v>-0.04666666666666212</v>
       </c>
       <c r="E15" t="n">
-        <v>0.18</v>
+        <v>-0.14</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="16">
@@ -4813,19 +5297,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.460000000000008</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0.153333333333336</v>
+        <v>0.1000000000000038</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -4835,19 +5319,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0639999999999965</v>
+        <v>-0.0210000000000008</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02133333333333217</v>
+        <v>-0.007000000000000266</v>
       </c>
       <c r="E17" t="n">
-        <v>0.32</v>
+        <v>-0.11</v>
       </c>
       <c r="F17" t="n">
-        <v>0.11</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="18">
@@ -4857,19 +5341,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6.600000000000136</v>
+        <v>-10.60000000000014</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.200000000000045</v>
+        <v>-3.533333333333379</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.64</v>
+        <v>-1.03</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.21</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="19">
@@ -4879,19 +5363,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3199999999999932</v>
+        <v>-0.02000000000001023</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1066666666666644</v>
+        <v>-0.006666666666670078</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20">
@@ -4901,19 +5385,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.2000000000000028</v>
+        <v>-0.6000000000000014</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1000000000000014</v>
+        <v>-0.3000000000000007</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.37</v>
+        <v>-1.1</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.18</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="21">
@@ -4923,19 +5407,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.003099999999999992</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.003099999999999992</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="22">
